--- a/dist/main/Plantilla/plantillaSoles-Oasis.xlsx
+++ b/dist/main/Plantilla/plantillaSoles-Oasis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Documents\GitHub\Tabla-de-Amortizacion\dist\main\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthoni\Documents\GitHub\Tabla-de-Amortizacion\Plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F37862-E175-4690-A117-21871DBAC4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2259112A-A5F7-4EFF-8A58-253CDE72F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BBF39F95-F655-4258-86B2-AB10BC559A4A}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>179552</xdr:colOff>
+      <xdr:colOff>420414</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>100543</xdr:rowOff>
     </xdr:to>
@@ -670,8 +670,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="1" max="2" width="14.7265625" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" style="19" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" customWidth="1"/>
     <col min="5" max="5" width="14.7265625" style="19" customWidth="1"/>
